--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Immunization event information</t>
@@ -2063,16 +2067,16 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2137,13 +2141,13 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2152,15 +2156,15 @@
         <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2171,7 +2175,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2180,19 +2184,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2242,13 +2246,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2277,10 +2281,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2291,7 +2295,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2300,16 +2304,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2360,19 +2364,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2395,10 +2399,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2409,7 +2413,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2421,13 +2425,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2478,13 +2482,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2499,7 +2503,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2513,14 +2517,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2539,16 +2543,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2586,19 +2590,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2610,7 +2614,7 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2619,7 +2623,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2633,10 +2637,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2647,7 +2651,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2656,19 +2660,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2718,19 +2722,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2753,10 +2757,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2767,7 +2771,7 @@
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2776,19 +2780,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2838,19 +2842,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2873,10 +2877,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2887,7 +2891,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2896,19 +2900,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2958,19 +2962,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2993,10 +2997,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3016,19 +3020,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3078,7 +3082,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3090,7 +3094,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3113,10 +3117,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3136,19 +3140,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3174,13 +3178,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3198,7 +3202,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3210,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3233,10 +3237,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3244,10 +3248,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3256,19 +3260,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3279,7 +3283,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -3294,13 +3298,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3318,7 +3322,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3330,7 +3334,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3348,15 +3352,15 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3367,28 +3371,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3438,19 +3442,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3473,10 +3477,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3487,7 +3491,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3499,16 +3503,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3534,13 +3538,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3558,19 +3562,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3593,21 +3597,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3619,16 +3623,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3678,19 +3682,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3699,7 +3703,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3713,14 +3717,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3739,16 +3743,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3798,7 +3802,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3819,7 +3823,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3833,14 +3837,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3859,16 +3863,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3918,7 +3922,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3930,7 +3934,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3939,7 +3943,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3953,14 +3957,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3973,25 +3977,25 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4040,7 +4044,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4052,7 +4056,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4061,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4075,10 +4079,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4101,13 +4105,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4158,7 +4162,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4170,22 +4174,22 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4193,10 +4197,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4204,31 +4208,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4239,7 +4243,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4254,11 +4258,11 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4276,45 +4280,45 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4328,7 +4332,7 @@
         <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4337,16 +4341,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4372,11 +4376,11 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4394,28 +4398,28 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4429,10 +4433,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4440,28 +4444,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4488,11 +4492,11 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4510,74 +4514,74 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4628,45 +4632,45 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4689,13 +4693,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4746,31 +4750,31 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4781,10 +4785,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4792,31 +4796,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4866,45 +4870,45 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4912,10 +4916,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4927,13 +4931,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4984,19 +4988,19 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5005,24 +5009,24 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5030,31 +5034,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5104,31 +5108,31 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5139,10 +5143,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5153,7 +5157,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5165,16 +5169,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5185,7 +5189,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5200,13 +5204,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5224,45 +5228,45 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5285,13 +5289,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5342,31 +5346,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5377,10 +5381,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5403,13 +5407,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5460,34 +5464,34 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5495,10 +5499,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5521,13 +5525,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5578,34 +5582,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5613,10 +5617,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5639,13 +5643,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5696,28 +5700,28 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5731,10 +5735,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5757,13 +5761,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5790,13 +5794,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5814,34 +5818,34 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5849,10 +5853,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5860,10 +5864,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5875,13 +5879,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5908,13 +5912,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5932,45 +5936,45 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5993,13 +5997,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6050,28 +6054,28 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6085,10 +6089,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6108,16 +6112,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6168,7 +6172,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6180,16 +6184,16 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6203,10 +6207,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6217,7 +6221,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6229,13 +6233,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6286,13 +6290,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6307,7 +6311,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6321,14 +6325,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6347,16 +6351,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6406,7 +6410,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6418,7 +6422,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6427,7 +6431,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6441,14 +6445,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6461,25 +6465,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6528,7 +6532,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6540,7 +6544,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6549,7 +6553,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6563,10 +6567,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6577,7 +6581,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6586,16 +6590,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6622,13 +6626,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6646,28 +6650,28 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6681,10 +6685,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6692,10 +6696,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6704,19 +6708,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6766,31 +6770,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6801,10 +6805,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6815,7 +6819,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6824,16 +6828,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6884,7 +6888,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6896,16 +6900,16 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6914,15 +6918,15 @@
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6945,13 +6949,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6978,13 +6982,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7002,7 +7006,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7014,16 +7018,16 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7037,10 +7041,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7063,13 +7067,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7120,7 +7124,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7132,16 +7136,16 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7155,10 +7159,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7175,29 +7179,29 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>80</v>
@@ -7242,28 +7246,28 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7277,10 +7281,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7303,13 +7307,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7336,13 +7340,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7360,7 +7364,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7372,7 +7376,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7381,7 +7385,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7395,10 +7399,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7421,13 +7425,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7478,7 +7482,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7490,7 +7494,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7499,7 +7503,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7513,10 +7517,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7527,7 +7531,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7539,13 +7543,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7596,13 +7600,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7617,7 +7621,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7631,14 +7635,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7657,16 +7661,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7716,7 +7720,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7728,7 +7732,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7737,7 +7741,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7751,14 +7755,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7771,25 +7775,25 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7850,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7859,7 +7863,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7873,10 +7877,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7887,7 +7891,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7899,13 +7903,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7956,28 +7960,28 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7991,10 +7995,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8005,7 +8009,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8017,13 +8021,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8074,19 +8078,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8095,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8109,10 +8113,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8123,7 +8127,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8135,13 +8139,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8192,28 +8196,28 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8227,10 +8231,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8241,7 +8245,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8253,13 +8257,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8310,28 +8314,28 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8345,10 +8349,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8371,13 +8375,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8404,13 +8408,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8428,7 +8432,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8440,16 +8444,16 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8463,10 +8467,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8489,13 +8493,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8522,13 +8526,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8546,19 +8550,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8567,7 +8571,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8581,10 +8585,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8607,16 +8611,16 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8666,7 +8670,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8678,16 +8682,16 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8701,10 +8705,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8715,7 +8719,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8727,13 +8731,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8784,13 +8788,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8805,7 +8809,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8819,14 +8823,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8845,16 +8849,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8904,7 +8908,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8916,7 +8920,7 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8925,7 +8929,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8939,14 +8943,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8959,25 +8963,25 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9026,7 +9030,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9038,7 +9042,7 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9047,7 +9051,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9061,10 +9065,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9075,7 +9079,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9087,13 +9091,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9144,28 +9148,28 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9179,10 +9183,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9193,7 +9197,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9205,13 +9209,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9262,28 +9266,28 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9292,15 +9296,15 @@
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9311,7 +9315,7 @@
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9323,13 +9327,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9380,28 +9384,28 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9415,10 +9419,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9498,7 +9502,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9510,7 +9514,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9519,7 +9523,7 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9533,10 +9537,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9547,7 +9551,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9559,13 +9563,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9616,13 +9620,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9637,7 +9641,7 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9651,14 +9655,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9677,16 +9681,16 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9736,7 +9740,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9748,7 +9752,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -9757,7 +9761,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9771,14 +9775,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9791,25 +9795,25 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9858,7 +9862,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -9870,7 +9874,7 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -9879,7 +9883,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9893,10 +9897,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9907,7 +9911,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9919,13 +9923,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9976,19 +9980,19 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -9997,7 +10001,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10011,10 +10015,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10025,7 +10029,7 @@
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10037,13 +10041,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10094,19 +10098,19 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10115,7 +10119,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10129,10 +10133,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10155,13 +10159,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10188,13 +10192,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10212,7 +10216,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10224,7 +10228,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10233,7 +10237,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10247,10 +10251,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10258,10 +10262,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10273,16 +10277,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10332,19 +10336,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10353,7 +10357,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10367,10 +10371,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10381,7 +10385,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10393,16 +10397,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10452,19 +10456,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10473,7 +10477,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Immunization that declares how MHV will Create/Update in PGHD for an immunization.
+    <t>A profile on the Immunization that declares how MHV will Create in PGHD for an immunization.
 **Proposed mapping not yet approved for implementation**
 Given that MyHealtheVet has access to medical record (Vista and Cerner) of immunizations, there should be logic keeping a patient from entering a duplicate immunization.
 * Derived off of US-Core Immunization

--- a/docs/StructureDefinition-VA.MHV.immunization.xlsx
+++ b/docs/StructureDefinition-VA.MHV.immunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -293,6 +293,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-5:SHOULD have a translation to the NDC value set {vaccineCode.coding.where(system='http://hl7.org/fhir/sid/ndc').empty()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -450,7 +454,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -470,7 +474,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1651,10 +1655,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2138,16 +2142,16 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>80</v>
@@ -2156,15 +2160,15 @@
         <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2175,7 +2179,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -2184,19 +2188,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2246,13 +2250,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -2281,10 +2285,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2295,7 +2299,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -2304,16 +2308,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2364,19 +2368,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -2399,10 +2403,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2413,7 +2417,7 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
@@ -2425,13 +2429,13 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2482,13 +2486,13 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
@@ -2503,7 +2507,7 @@
         <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>80</v>
@@ -2517,14 +2521,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2543,16 +2547,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2590,19 +2594,19 @@
         <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
@@ -2614,7 +2618,7 @@
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2623,7 +2627,7 @@
         <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>80</v>
@@ -2637,10 +2641,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2651,7 +2655,7 @@
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2660,19 +2664,19 @@
         <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2722,19 +2726,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2757,10 +2761,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2771,7 +2775,7 @@
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2780,19 +2784,19 @@
         <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2842,19 +2846,19 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>80</v>
@@ -2877,10 +2881,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2891,7 +2895,7 @@
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>80</v>
@@ -2900,19 +2904,19 @@
         <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2962,19 +2966,19 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2997,10 +3001,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3020,19 +3024,19 @@
         <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3082,7 +3086,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3094,7 +3098,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -3117,10 +3121,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3140,19 +3144,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3178,13 +3182,13 @@
         <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>80</v>
@@ -3202,7 +3206,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3214,7 +3218,7 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>80</v>
@@ -3237,10 +3241,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3248,10 +3252,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
@@ -3260,19 +3264,19 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3283,7 +3287,7 @@
         <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>80</v>
@@ -3298,13 +3302,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3322,7 +3326,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3334,7 +3338,7 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>80</v>
@@ -3352,15 +3356,15 @@
         <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3371,28 +3375,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3442,19 +3446,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3477,10 +3481,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3491,7 +3495,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3503,16 +3507,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3538,13 +3542,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3562,19 +3566,19 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
@@ -3597,21 +3601,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3623,16 +3627,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3682,19 +3686,19 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
@@ -3703,7 +3707,7 @@
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3717,14 +3721,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3743,16 +3747,16 @@
         <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3802,7 +3806,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3823,7 +3827,7 @@
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>80</v>
@@ -3837,14 +3841,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3863,16 +3867,16 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3922,7 +3926,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3934,7 +3938,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
@@ -3943,7 +3947,7 @@
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>80</v>
@@ -3957,14 +3961,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3977,25 +3981,25 @@
         <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4044,7 +4048,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4056,7 +4060,7 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4065,7 +4069,7 @@
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>80</v>
@@ -4079,10 +4083,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4105,13 +4109,13 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4162,7 +4166,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4174,22 +4178,22 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4197,10 +4201,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4208,31 +4212,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4243,7 +4247,7 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>80</v>
@@ -4258,11 +4262,11 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4280,45 +4284,45 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4332,7 +4336,7 @@
         <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4341,16 +4345,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4376,11 +4380,11 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4398,28 +4402,28 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
@@ -4433,10 +4437,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4444,28 +4448,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4492,11 +4496,11 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
@@ -4514,74 +4518,74 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4632,45 +4636,45 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4693,13 +4697,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4750,31 +4754,31 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -4785,10 +4789,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4796,31 +4800,31 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4870,45 +4874,45 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4916,10 +4920,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4931,13 +4935,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4988,19 +4992,19 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5009,24 +5013,24 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5034,31 +5038,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5108,31 +5112,31 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5143,10 +5147,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5157,7 +5161,7 @@
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>80</v>
@@ -5169,16 +5173,16 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5189,7 +5193,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -5204,13 +5208,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5228,45 +5232,45 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5289,13 +5293,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5346,31 +5350,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5381,10 +5385,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5407,13 +5411,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5464,34 +5468,34 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -5499,10 +5503,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5525,13 +5529,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5582,34 +5586,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5617,10 +5621,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5643,13 +5647,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5700,28 +5704,28 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5735,10 +5739,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5761,13 +5765,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5794,13 +5798,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5818,34 +5822,34 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5853,10 +5857,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5864,10 +5868,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5879,13 +5883,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5912,13 +5916,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5936,45 +5940,45 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5997,13 +6001,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6054,28 +6058,28 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6089,10 +6093,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6112,16 +6116,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6172,7 +6176,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6184,16 +6188,16 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6221,7 +6225,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6233,13 +6237,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6290,13 +6294,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6311,7 +6315,7 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
@@ -6325,14 +6329,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6351,16 +6355,16 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6410,7 +6414,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6422,7 +6426,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -6431,7 +6435,7 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6445,14 +6449,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6465,25 +6469,25 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6532,7 +6536,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6544,7 +6548,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -6553,7 +6557,7 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
@@ -6567,10 +6571,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6581,7 +6585,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6590,16 +6594,16 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6626,13 +6630,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6650,28 +6654,28 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
@@ -6685,10 +6689,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6696,10 +6700,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6708,19 +6712,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6770,31 +6774,31 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6805,10 +6809,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6819,7 +6823,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6828,16 +6832,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6888,7 +6892,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6900,16 +6904,16 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -6918,15 +6922,15 @@
         <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6949,13 +6953,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6982,13 +6986,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7006,7 +7010,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7018,16 +7022,16 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7041,10 +7045,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7067,13 +7071,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7124,7 +7128,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7136,16 +7140,16 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>80</v>
@@ -7159,10 +7163,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7179,29 +7183,29 @@
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>80</v>
@@ -7246,28 +7250,28 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
@@ -7281,10 +7285,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7307,13 +7311,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7340,13 +7344,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7364,7 +7368,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7376,7 +7380,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7385,7 +7389,7 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
@@ -7399,10 +7403,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7425,13 +7429,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7482,7 +7486,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7494,7 +7498,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -7503,7 +7507,7 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
@@ -7517,10 +7521,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7531,7 +7535,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7543,13 +7547,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7600,13 +7604,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7621,7 +7625,7 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
@@ -7635,14 +7639,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7661,16 +7665,16 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7720,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7732,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
@@ -7741,7 +7745,7 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
@@ -7755,14 +7759,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7775,25 +7779,25 @@
         <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7842,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7854,7 +7858,7 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -7863,7 +7867,7 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
@@ -7877,10 +7881,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7891,7 +7895,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7903,13 +7907,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7960,28 +7964,28 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -7995,10 +7999,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8009,7 +8013,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8021,13 +8025,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8078,19 +8082,19 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8099,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8113,10 +8117,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8127,7 +8131,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8139,13 +8143,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8196,28 +8200,28 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
@@ -8231,10 +8235,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8245,7 +8249,7 @@
         <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8257,13 +8261,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8314,28 +8318,28 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
@@ -8349,10 +8353,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8375,13 +8379,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8408,13 +8412,13 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8432,7 +8436,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8444,16 +8448,16 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
@@ -8467,10 +8471,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8493,13 +8497,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8526,13 +8530,13 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
@@ -8550,19 +8554,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -8571,7 +8575,7 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
@@ -8585,10 +8589,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8611,16 +8615,16 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8670,7 +8674,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8682,16 +8686,16 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
@@ -8705,10 +8709,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8719,7 +8723,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8731,13 +8735,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8788,13 +8792,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8809,7 +8813,7 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
@@ -8823,14 +8827,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8849,16 +8853,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8908,7 +8912,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -8920,7 +8924,7 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -8929,7 +8933,7 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>80</v>
@@ -8943,14 +8947,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8963,25 +8967,25 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9030,7 +9034,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9042,7 +9046,7 @@
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
@@ -9051,7 +9055,7 @@
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>80</v>
@@ -9065,10 +9069,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9079,7 +9083,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9091,13 +9095,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9148,28 +9152,28 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9183,10 +9187,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9197,7 +9201,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9209,13 +9213,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9266,28 +9270,28 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9296,15 +9300,15 @@
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9315,7 +9319,7 @@
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9327,13 +9331,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9384,28 +9388,28 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>80</v>
@@ -9419,10 +9423,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9445,13 +9449,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9502,7 +9506,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9514,7 +9518,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9523,7 +9527,7 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>80</v>
@@ -9537,10 +9541,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9551,7 +9555,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9563,13 +9567,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9620,13 +9624,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -9641,7 +9645,7 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>80</v>
@@ -9655,14 +9659,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9681,16 +9685,16 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9740,7 +9744,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9752,7 +9756,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -9761,7 +9765,7 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>80</v>
@@ -9775,14 +9779,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9795,25 +9799,25 @@
         <v>80</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9862,7 +9866,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -9874,7 +9878,7 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -9883,7 +9887,7 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>80</v>
@@ -9897,10 +9901,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9911,7 +9915,7 @@
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9923,13 +9927,13 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9980,19 +9984,19 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10001,7 +10005,7 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10015,10 +10019,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10029,7 +10033,7 @@
         <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10041,13 +10045,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10098,19 +10102,19 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10119,7 +10123,7 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>80</v>
@@ -10133,10 +10137,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10159,13 +10163,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10192,13 +10196,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10216,7 +10220,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10228,7 +10232,7 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10237,7 +10241,7 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>80</v>
@@ -10251,10 +10255,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10262,10 +10266,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10277,16 +10281,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10336,19 +10340,19 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10357,7 +10361,7 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>80</v>
@@ -10371,10 +10375,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10385,7 +10389,7 @@
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10397,16 +10401,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10456,19 +10460,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -10477,7 +10481,7 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
